--- a/emagevision/emagevision_gpu_usage.xlsx
+++ b/emagevision/emagevision_gpu_usage.xlsx
@@ -14,66 +14,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
   <si>
     <t>date_hour_of_Aug</t>
   </si>
   <si>
-    <t>24_06</t>
-  </si>
-  <si>
-    <t>pravin44%</t>
+    <t>14_03</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>shreevijay43%</t>
+    <t>vignesh80%</t>
   </si>
   <si>
     <t>1%</t>
   </si>
   <si>
-    <t>25_07</t>
+    <t>vignesh81%</t>
+  </si>
+  <si>
+    <t>vignesh77%</t>
+  </si>
+  <si>
+    <t>14_12</t>
+  </si>
+  <si>
+    <t>14_18</t>
+  </si>
+  <si>
+    <t>15_00</t>
+  </si>
+  <si>
+    <t>15_06</t>
+  </si>
+  <si>
+    <t>15_12</t>
+  </si>
+  <si>
+    <t>pravin35%</t>
+  </si>
+  <si>
+    <t>shreevijay0%</t>
+  </si>
+  <si>
+    <t>15_18</t>
+  </si>
+  <si>
+    <t>pravin52%</t>
+  </si>
+  <si>
+    <t>16_00</t>
   </si>
   <si>
     <t>pravin48%</t>
   </si>
   <si>
+    <t>16_06</t>
+  </si>
+  <si>
+    <t>pravin22%</t>
+  </si>
+  <si>
+    <t>gowtham0%</t>
+  </si>
+  <si>
+    <t>shreevijay22%</t>
+  </si>
+  <si>
+    <t>16_12</t>
+  </si>
+  <si>
+    <t>pravin60%</t>
+  </si>
+  <si>
+    <t>16_18</t>
+  </si>
+  <si>
+    <t>pravin53%</t>
+  </si>
+  <si>
+    <t>17_00</t>
+  </si>
+  <si>
+    <t>pravin61%</t>
+  </si>
+  <si>
+    <t>17_06</t>
+  </si>
+  <si>
+    <t>pravin40%</t>
+  </si>
+  <si>
+    <t>shreevijay37%</t>
+  </si>
+  <si>
+    <t>17_12</t>
+  </si>
+  <si>
+    <t>shreevijay35%</t>
+  </si>
+  <si>
+    <t>17_18</t>
+  </si>
+  <si>
     <t>shreevijay33%</t>
   </si>
   <si>
-    <t>31_03</t>
-  </si>
-  <si>
-    <t>pravin42%</t>
-  </si>
-  <si>
-    <t>shreevijay57%</t>
+    <t>18_00</t>
+  </si>
+  <si>
+    <t>pravin19%</t>
+  </si>
+  <si>
+    <t>shreevijay27%</t>
+  </si>
+  <si>
+    <t>18_06</t>
   </si>
   <si>
     <t>pravin41%</t>
   </si>
   <si>
-    <t>shreevijay48%</t>
-  </si>
-  <si>
-    <t>pravin36%</t>
-  </si>
-  <si>
-    <t>shreevijay51%</t>
-  </si>
-  <si>
-    <t>pravin35%</t>
-  </si>
-  <si>
-    <t>shreevijay64%</t>
+    <t>shreevijay30%</t>
+  </si>
+  <si>
+    <t>18_12</t>
+  </si>
+  <si>
+    <t>18_18</t>
+  </si>
+  <si>
+    <t>pravin54%</t>
+  </si>
+  <si>
+    <t>shreevijay45%</t>
+  </si>
+  <si>
+    <t>19_00</t>
+  </si>
+  <si>
+    <t>19_06</t>
+  </si>
+  <si>
+    <t>pravin43%</t>
+  </si>
+  <si>
+    <t>19_12</t>
+  </si>
+  <si>
+    <t>pravin56%</t>
+  </si>
+  <si>
+    <t>19_18</t>
+  </si>
+  <si>
+    <t>pravin34%</t>
+  </si>
+  <si>
+    <t>20_00</t>
+  </si>
+  <si>
+    <t>shreevijay46%</t>
+  </si>
+  <si>
+    <t>20_06</t>
   </si>
   <si>
     <t>pravin0%</t>
-  </si>
-  <si>
-    <t>shreevijay40%</t>
   </si>
 </sst>
 </file>
@@ -405,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,141 +556,141 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -590,57 +698,637 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
